--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\24-1\종설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9543AC89-F60F-43D3-BE54-AB820629874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6190AE1F-4EF2-4D65-980A-A2DB8E5A8231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
+    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,18 @@
       </rPr>
       <t>ption</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰서 반경 10m 외에 모든 지역에서 스폰 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,9 +277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,13 +619,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -635,12 +644,14 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -653,7 +664,9 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -771,35 +784,37 @@
       <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6190AE1F-4EF2-4D65-980A-A2DB8E5A8231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9E256-6D3F-4671-98F5-B3DF4387057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
+    <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(50,50)이 map_plain 중점, 경찰서가 맵 중앙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spawn_criminal_inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,53 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 외곽으로부터 10m 거리 내에 스폰 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰서로부터 10m 거리 내에 스폰 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spawn_npc_inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spawn_npc_outer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>descr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ption</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰서 반경 10m 외에 모든 지역에서 스폰 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +169,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -260,13 +207,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,7 +248,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +600,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,16 +622,14 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -661,12 +640,10 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -681,12 +658,10 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -701,16 +676,14 @@
       <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -721,16 +694,14 @@
       <c r="D5" s="2">
         <v>60</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>60</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -741,16 +712,14 @@
       <c r="D6" s="2">
         <v>90</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>90</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>40</v>
@@ -761,16 +730,14 @@
       <c r="D7" s="2">
         <v>60</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>60</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -781,12 +748,10 @@
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>100</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>

--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9E256-6D3F-4671-98F5-B3DF4387057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE836DAF-0ACE-4939-BA19-415519FBC727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
+    <workbookView xWindow="705" yWindow="555" windowWidth="25620" windowHeight="11385" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,10 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +597,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +640,7 @@
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -661,25 +658,25 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5">
         <v>50</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -697,7 +694,7 @@
       <c r="E5" s="5">
         <v>60</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">

--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE836DAF-0ACE-4939-BA19-415519FBC727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C02C8-2503-4A72-88CF-F59C7E0A1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="555" windowWidth="25620" windowHeight="11385" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,16 +665,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6"/>
     </row>

--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C02C8-2503-4A72-88CF-F59C7E0A1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3A93A-1449-4054-92CC-C62B87A6C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,18 +146,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -600,13 +600,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="42.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -642,7 +642,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -660,79 +660,79 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E5" s="5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E6" s="5">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E7" s="5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -743,35 +743,35 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E8" s="5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>

--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3A93A-1449-4054-92CC-C62B87A6C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47909A3F-FD71-4461-8D53-DA6B0A6A96C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E6" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E8" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F8" s="6"/>
     </row>

--- a/spawn.xlsx
+++ b/spawn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47909A3F-FD71-4461-8D53-DA6B0A6A96C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F24E0D-187A-42EE-BECF-445216008168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52B2F6BD-FAB0-4697-8424-EA8D96EDCB24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>spawn_criminal_outer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawn_npc_inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72770396-C383-4002-8A15-9510EB2CAA31}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -626,7 +622,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -719,36 +715,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
+        <v>130</v>
+      </c>
+      <c r="E7" s="5">
         <v>120</v>
       </c>
-      <c r="E7" s="5">
-        <v>56</v>
-      </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>130</v>
-      </c>
-      <c r="E8" s="5">
-        <v>120</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
@@ -771,13 +756,6 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
